--- a/InputFiles/TC05_INS_Filter_Doc-DCTD.xlsx
+++ b/InputFiles/TC05_INS_Filter_Doc-DCTD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA098D8-707A-4385-9513-F5D53E32D98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3AC20B-FA03-4B53-A332-00E9FC506029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="16354" yWindow="-4860" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 SUBSTRING(p.project_id, 1, 3) AS `Activity code`,
 "$" + apoc.number.format(toInteger(p.award_amount)) AS `Award Amount`,
 coalesce(p.project_end_date, '') AS `Project End Date`,
-coalesce(p.fiscal_year,'')AS `Fiscal Year`</t>
+coalesce(p.fiscal_year,'')AS `Fiscal Year` ORDER BY p.project_id ASC LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -467,16 +467,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.42578125" customWidth="1"/>
-    <col min="3" max="3" width="86.140625" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.44140625" customWidth="1"/>
+    <col min="3" max="3" width="86.109375" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -510,7 +510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
   </sheetData>
@@ -526,7 +526,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
